--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H2">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I2">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J2">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.63918933333334</v>
+        <v>49.248769</v>
       </c>
       <c r="N2">
-        <v>175.917568</v>
+        <v>147.746307</v>
       </c>
       <c r="O2">
-        <v>0.9153206706690767</v>
+        <v>0.9020275209950399</v>
       </c>
       <c r="P2">
-        <v>0.923685878527411</v>
+        <v>0.9115269283167855</v>
       </c>
       <c r="Q2">
-        <v>1185.974340018461</v>
+        <v>7.372951125708334</v>
       </c>
       <c r="R2">
-        <v>10673.76906016615</v>
+        <v>66.35656013137501</v>
       </c>
       <c r="S2">
-        <v>0.8733258657949463</v>
+        <v>0.005875238407691184</v>
       </c>
       <c r="T2">
-        <v>0.8944159244376227</v>
+        <v>0.006170690233622764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H3">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I3">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J3">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>10.817043</v>
       </c>
       <c r="O3">
-        <v>0.05628240070608662</v>
+        <v>0.06604070639672062</v>
       </c>
       <c r="P3">
-        <v>0.0567967712384688</v>
+        <v>0.0667361924603678</v>
       </c>
       <c r="Q3">
-        <v>72.92469750875769</v>
+        <v>0.5398004930416667</v>
       </c>
       <c r="R3">
-        <v>656.3222775788191</v>
+        <v>4.858204437375</v>
       </c>
       <c r="S3">
-        <v>0.0537001707715523</v>
+        <v>0.00043014751286641</v>
       </c>
       <c r="T3">
-        <v>0.05499698310134957</v>
+        <v>0.0004517786126239858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +652,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H4">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I4">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J4">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.045876</v>
+        <v>0.03644433333333334</v>
       </c>
       <c r="N4">
-        <v>0.137628</v>
+        <v>0.109333</v>
       </c>
       <c r="O4">
-        <v>0.0007160953547450342</v>
+        <v>0.0006675048395825602</v>
       </c>
       <c r="P4">
-        <v>0.0007226398223625426</v>
+        <v>0.0006745344481176041</v>
       </c>
       <c r="Q4">
-        <v>0.9278395462360002</v>
+        <v>0.005456020402777778</v>
       </c>
       <c r="R4">
-        <v>8.350555916124001</v>
+        <v>0.049104183625</v>
       </c>
       <c r="S4">
-        <v>0.0006832409839682802</v>
+        <v>4.347705562807064E-06</v>
       </c>
       <c r="T4">
-        <v>0.0006997406583548331</v>
+        <v>4.566341379434124E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.22494433333334</v>
+        <v>0.1497083333333333</v>
       </c>
       <c r="H5">
-        <v>60.67483300000001</v>
+        <v>0.449125</v>
       </c>
       <c r="I5">
-        <v>0.9541201174409912</v>
+        <v>0.006513369349540601</v>
       </c>
       <c r="J5">
-        <v>0.9683117878380343</v>
+        <v>0.006769619242096868</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7405575</v>
+        <v>1.706962</v>
       </c>
       <c r="N5">
-        <v>3.481115</v>
+        <v>3.413924</v>
       </c>
       <c r="O5">
-        <v>0.02716900210167909</v>
+        <v>0.03126426776865702</v>
       </c>
       <c r="P5">
-        <v>0.01827820156671304</v>
+        <v>0.02106234477472898</v>
       </c>
       <c r="Q5">
-        <v>35.20267854646583</v>
+        <v>0.2555464360833333</v>
       </c>
       <c r="R5">
-        <v>211.216071278795</v>
+        <v>1.5332786165</v>
       </c>
       <c r="S5">
-        <v>0.02592249147600859</v>
+        <v>0.0002036357234202007</v>
       </c>
       <c r="T5">
-        <v>0.01769899803752786</v>
+        <v>0.0001425840544706837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +791,40 @@
         <v>60.67483300000001</v>
       </c>
       <c r="I6">
-        <v>0.9541201174409912</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J6">
-        <v>0.9683117878380343</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03279</v>
+        <v>49.248769</v>
       </c>
       <c r="N6">
-        <v>0.09837</v>
+        <v>147.746307</v>
       </c>
       <c r="O6">
-        <v>0.0005118311684124525</v>
+        <v>0.9020275209950399</v>
       </c>
       <c r="P6">
-        <v>0.0005165088450446371</v>
+        <v>0.9115269283167855</v>
       </c>
       <c r="Q6">
-        <v>0.6631759246900001</v>
+        <v>996.0536115101926</v>
       </c>
       <c r="R6">
-        <v>5.968583322210001</v>
+        <v>8964.482503591733</v>
       </c>
       <c r="S6">
-        <v>0.000488348414515649</v>
+        <v>0.7937191410450288</v>
       </c>
       <c r="T6">
-        <v>0.0005001416031793308</v>
+        <v>0.8336333969825598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H7">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I7">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J7">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.63918933333334</v>
+        <v>3.605681</v>
       </c>
       <c r="N7">
-        <v>175.917568</v>
+        <v>10.817043</v>
       </c>
       <c r="O7">
-        <v>0.9153206706690767</v>
+        <v>0.06604070639672062</v>
       </c>
       <c r="P7">
-        <v>0.923685878527411</v>
+        <v>0.0667361924603678</v>
       </c>
       <c r="Q7">
-        <v>2.376118590976001</v>
+        <v>72.92469750875769</v>
       </c>
       <c r="R7">
-        <v>21.385067318784</v>
+        <v>656.3222775788191</v>
       </c>
       <c r="S7">
-        <v>0.001749722363860994</v>
+        <v>0.05811105707438861</v>
       </c>
       <c r="T7">
-        <v>0.001791976634239945</v>
+        <v>0.06103332451752191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +900,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>20.22494433333334</v>
+      </c>
+      <c r="H8">
+        <v>60.67483300000001</v>
+      </c>
+      <c r="I8">
+        <v>0.8799278542737426</v>
+      </c>
+      <c r="J8">
+        <v>0.9145460996110527</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>0.040521</v>
-      </c>
-      <c r="H8">
-        <v>0.121563</v>
-      </c>
-      <c r="I8">
-        <v>0.001911594941455862</v>
-      </c>
-      <c r="J8">
-        <v>0.00194002818046413</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>3.605681</v>
+        <v>0.03644433333333334</v>
       </c>
       <c r="N8">
-        <v>10.817043</v>
+        <v>0.109333</v>
       </c>
       <c r="O8">
-        <v>0.05628240070608662</v>
+        <v>0.0006675048395825602</v>
       </c>
       <c r="P8">
-        <v>0.0567967712384688</v>
+        <v>0.0006745344481176041</v>
       </c>
       <c r="Q8">
-        <v>0.146105799801</v>
+        <v>0.7370846129321112</v>
       </c>
       <c r="R8">
-        <v>1.314952198209</v>
+        <v>6.633761516389001</v>
       </c>
       <c r="S8">
-        <v>0.000107589152482747</v>
+        <v>0.0005873561012112211</v>
       </c>
       <c r="T8">
-        <v>0.0001101873367620041</v>
+        <v>0.0006168928485792488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +962,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.040521</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H9">
-        <v>0.121563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I9">
-        <v>0.001911594941455862</v>
+        <v>0.8799278542737426</v>
       </c>
       <c r="J9">
-        <v>0.00194002818046413</v>
+        <v>0.9145460996110527</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.045876</v>
+        <v>1.706962</v>
       </c>
       <c r="N9">
-        <v>0.137628</v>
+        <v>3.413924</v>
       </c>
       <c r="O9">
-        <v>0.0007160953547450342</v>
+        <v>0.03126426776865702</v>
       </c>
       <c r="P9">
-        <v>0.0007226398223625426</v>
+        <v>0.02106234477472898</v>
       </c>
       <c r="Q9">
-        <v>0.001858941396</v>
+        <v>34.52321142911534</v>
       </c>
       <c r="R9">
-        <v>0.016730472564</v>
+        <v>207.139268574692</v>
       </c>
       <c r="S9">
-        <v>1.368884257730648E-06</v>
+        <v>0.0275103000531141</v>
       </c>
       <c r="T9">
-        <v>1.401941619708926E-06</v>
+        <v>0.01926248526239163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,60 +1024,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.040521</v>
+        <v>2.610123</v>
       </c>
       <c r="H10">
-        <v>0.121563</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I10">
-        <v>0.001911594941455862</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J10">
-        <v>0.00194002818046413</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7405575</v>
+        <v>49.248769</v>
       </c>
       <c r="N10">
-        <v>3.481115</v>
+        <v>147.746307</v>
       </c>
       <c r="O10">
-        <v>0.02716900210167909</v>
+        <v>0.9020275209950399</v>
       </c>
       <c r="P10">
-        <v>0.01827820156671304</v>
+        <v>0.9115269283167855</v>
       </c>
       <c r="Q10">
-        <v>0.07052913045749999</v>
+        <v>128.545344688587</v>
       </c>
       <c r="R10">
-        <v>0.423174782745</v>
+        <v>771.2720681315219</v>
       </c>
       <c r="S10">
-        <v>5.193612698197342E-05</v>
+        <v>0.1024331415423198</v>
       </c>
       <c r="T10">
-        <v>3.546022612762691E-05</v>
+        <v>0.07172284110060292</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,55 +1086,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.040521</v>
+        <v>2.610123</v>
       </c>
       <c r="H11">
-        <v>0.121563</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I11">
-        <v>0.001911594941455862</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J11">
-        <v>0.00194002818046413</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03279</v>
+        <v>3.605681</v>
       </c>
       <c r="N11">
-        <v>0.09837</v>
+        <v>10.817043</v>
       </c>
       <c r="O11">
-        <v>0.0005118311684124525</v>
+        <v>0.06604070639672062</v>
       </c>
       <c r="P11">
-        <v>0.0005165088450446371</v>
+        <v>0.0667361924603678</v>
       </c>
       <c r="Q11">
-        <v>0.00132868359</v>
+        <v>9.411270908762999</v>
       </c>
       <c r="R11">
-        <v>0.01195815231</v>
+        <v>56.46762545257799</v>
       </c>
       <c r="S11">
-        <v>9.784138724166876E-07</v>
+        <v>0.0074995018094656</v>
       </c>
       <c r="T11">
-        <v>1.002041714845576E-06</v>
+        <v>0.0052510893302219</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H12">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I12">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J12">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>58.63918933333334</v>
+        <v>0.03644433333333334</v>
       </c>
       <c r="N12">
-        <v>175.917568</v>
+        <v>0.109333</v>
       </c>
       <c r="O12">
-        <v>0.9153206706690767</v>
+        <v>0.0006675048395825602</v>
       </c>
       <c r="P12">
-        <v>0.923685878527411</v>
+        <v>0.0006745344481176041</v>
       </c>
       <c r="Q12">
-        <v>54.65272132488534</v>
+        <v>0.095124192653</v>
       </c>
       <c r="R12">
-        <v>327.916327949312</v>
+        <v>0.5707451559179999</v>
       </c>
       <c r="S12">
-        <v>0.04024508251026954</v>
+        <v>7.58010328085321E-05</v>
       </c>
       <c r="T12">
-        <v>0.02747797745554833</v>
+        <v>5.307525815892116E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,232 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.932017</v>
+        <v>2.610123</v>
       </c>
       <c r="H13">
-        <v>1.864034</v>
+        <v>5.220245999999999</v>
       </c>
       <c r="I13">
-        <v>0.04396828761755307</v>
+        <v>0.1135587763767167</v>
       </c>
       <c r="J13">
-        <v>0.02974818398150156</v>
+        <v>0.07868428114685043</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.605681</v>
+        <v>1.706962</v>
       </c>
       <c r="N13">
-        <v>10.817043</v>
+        <v>3.413924</v>
       </c>
       <c r="O13">
-        <v>0.05628240070608662</v>
+        <v>0.03126426776865702</v>
       </c>
       <c r="P13">
-        <v>0.0567967712384688</v>
+        <v>0.02106234477472898</v>
       </c>
       <c r="Q13">
-        <v>3.360555988577</v>
+        <v>4.455380776325999</v>
       </c>
       <c r="R13">
-        <v>20.163335931462</v>
+        <v>17.821523105304</v>
       </c>
       <c r="S13">
-        <v>0.002474640782051589</v>
+        <v>0.003550331992122713</v>
       </c>
       <c r="T13">
-        <v>0.001689600800357226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.932017</v>
-      </c>
-      <c r="H14">
-        <v>1.864034</v>
-      </c>
-      <c r="I14">
-        <v>0.04396828761755307</v>
-      </c>
-      <c r="J14">
-        <v>0.02974818398150156</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.045876</v>
-      </c>
-      <c r="N14">
-        <v>0.137628</v>
-      </c>
-      <c r="O14">
-        <v>0.0007160953547450342</v>
-      </c>
-      <c r="P14">
-        <v>0.0007226398223625426</v>
-      </c>
-      <c r="Q14">
-        <v>0.042757211892</v>
-      </c>
-      <c r="R14">
-        <v>0.256543271352</v>
-      </c>
-      <c r="S14">
-        <v>3.148548651902336E-05</v>
-      </c>
-      <c r="T14">
-        <v>2.149722238800052E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.932017</v>
-      </c>
-      <c r="H15">
-        <v>1.864034</v>
-      </c>
-      <c r="I15">
-        <v>0.04396828761755307</v>
-      </c>
-      <c r="J15">
-        <v>0.02974818398150156</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.7405575</v>
-      </c>
-      <c r="N15">
-        <v>3.481115</v>
-      </c>
-      <c r="O15">
-        <v>0.02716900210167909</v>
-      </c>
-      <c r="P15">
-        <v>0.01827820156671304</v>
-      </c>
-      <c r="Q15">
-        <v>1.6222291794775</v>
-      </c>
-      <c r="R15">
-        <v>6.488916717909999</v>
-      </c>
-      <c r="S15">
-        <v>0.00119457449868853</v>
-      </c>
-      <c r="T15">
-        <v>0.0005437433030575496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.932017</v>
-      </c>
-      <c r="H16">
-        <v>1.864034</v>
-      </c>
-      <c r="I16">
-        <v>0.04396828761755307</v>
-      </c>
-      <c r="J16">
-        <v>0.02974818398150156</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.03279</v>
-      </c>
-      <c r="N16">
-        <v>0.09837</v>
-      </c>
-      <c r="O16">
-        <v>0.0005118311684124525</v>
-      </c>
-      <c r="P16">
-        <v>0.0005165088450446371</v>
-      </c>
-      <c r="Q16">
-        <v>0.03056083743</v>
-      </c>
-      <c r="R16">
-        <v>0.18336502458</v>
-      </c>
-      <c r="S16">
-        <v>2.250434002438696E-05</v>
-      </c>
-      <c r="T16">
-        <v>1.536520015046075E-05</v>
+        <v>0.001657275457866671</v>
       </c>
     </row>
   </sheetData>
